--- a/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16014964830042805, 0.006319493385571869, -0.04091551721438996, -0.05858842616238043, -0.013952503734280123, 0.1457823717617883, 0.2997770851256144, 0.12112223282782156, -0.023001484044785407, -0.08167710946294351, -0.06606268930906901, -0.04503916246486379, 0.15204428672204304, 0.30055848564274934, 0.12638316991232157, -0.02583730236550094, -0.09176064262131814, -0.08912174601445778, -0.03584873166383549]</t>
+    <t>[1.0, 0.15214199063614664, 0.0024567746449741306, -0.05354909814529638, -0.07315228782721622, -0.016372744574715402, 0.15372033099980228, 0.30059508547459485, 0.12548394789733197, -0.02969963347753591, -0.09714544857305181, -0.07018405305991973, -0.051899849740815164, 0.15227050616451282, 0.30034768904030523, 0.1360158520957131, -0.030272469010306467, -0.10188644862007384, -0.08816246104797394, -0.04440799880289943]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.1633030394619685, 0.009314122979651021, -0.03553475356011592, -0.05403332269742089, -0.016428146199346197, 0.1429110568537933, 0.2966034362638458, 0.11789676010786454, -0.023266859829068506, -0.07719713704763413, -0.06262277265665875, -0.045655405754486816, 0.15025443963985025, 0.2966896631727092, 0.1245880652839908, -0.024112123514402145, -0.08787771097426056, -0.08409609855327078, -0.03490681841406111]</t>
+    <t>[1.0, 0.1544674970166712, 0.004559652370383741, -0.049658223161043714, -0.06912541428702318, -0.0184221376826904, 0.1516922152660957, 0.29904641062185816, 0.1223992717484115, -0.02969442462103319, -0.0941566456745915, -0.06779237347259578, -0.052760395509828, 0.15068692223492558, 0.297977045128098, 0.1345681922024824, -0.029657986747335035, -0.09985994708396567, -0.08441942880303362, -0.04410857363992214]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.1813</v>
+        <v>1.6426</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.000112122007561379</v>
+        <v>-2.697150114347342E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.09273814318815624</v>
+        <v>-0.1191214929773638</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001613244288301545</v>
+        <v>0.001721328424401259</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9355295784626284</v>
+        <v>0.9513091410197519</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0003614971820210863</v>
+        <v>0.0002938029793293068</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.005482692490732029</v>
+        <v>-0.05622652803176666</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.001676425996407432</v>
+        <v>0.001767962173888043</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.004052176248651647</v>
+        <v>0.003155959689900679</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.3801356450595673</v>
+        <v>-0.326588889523496</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.001544648005416202</v>
+        <v>0.001672524500372691</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.15214199063614664, 0.0024567746449741306, -0.05354909814529638, -0.07315228782721622, -0.016372744574715402, 0.15372033099980228, 0.30059508547459485, 0.12548394789733197, -0.02969963347753591, -0.09714544857305181, -0.07018405305991973, -0.051899849740815164, 0.15227050616451282, 0.30034768904030523, 0.1360158520957131, -0.030272469010306467, -0.10188644862007384, -0.08816246104797394, -0.04440799880289943]</t>
+    <t>[1.0, 0.1525143732735503, -0.0071801845636677245, -0.06386388064652439, -0.08437758483280604, -0.026666015846221563, 0.15616924329792167, 0.3079629521290953, 0.12682109424832988, -0.03567518520866726, -0.10403850491525923, -0.07775068958576623, -0.05713840945199983, 0.1538747973035678, 0.3073728262932102, 0.13745764394194362, -0.03586596423707714, -0.10765067293781076, -0.09413323618878881, -0.04939421997027026]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.1544674970166712, 0.004559652370383741, -0.049658223161043714, -0.06912541428702318, -0.0184221376826904, 0.1516922152660957, 0.29904641062185816, 0.1223992717484115, -0.02969442462103319, -0.0941566456745915, -0.06779237347259578, -0.052760395509828, 0.15068692223492558, 0.297977045128098, 0.1345681922024824, -0.029657986747335035, -0.09985994708396567, -0.08441942880303362, -0.04410857363992214]</t>
+    <t>[1.0, 0.1523674428269201, -0.005535429335141594, -0.061912761488983566, -0.08328815727985144, -0.02595889001695908, 0.15494943008275708, 0.30557787031226324, 0.12560443642927338, -0.03441670491204005, -0.10249552638206944, -0.07632453255560184, -0.05645132754036239, 0.1524549843567909, 0.3051260436007956, 0.1365502049137924, -0.03515224251559686, -0.10548666175929189, -0.09298151434264713, -0.04906930652511911]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-2.697150114347342E-05</v>
+        <v>1.559499027795207E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.1191214929773638</v>
+        <v>-0.001973831047874729</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001721328424401259</v>
+        <v>0.00172479833526934</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0002938029793293068</v>
+        <v>0.00164860382354744</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.05622652803176666</v>
+        <v>0.001476759589827472</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.001767962173888043</v>
+        <v>0.001768294473691201</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.003155959689900679</v>
+        <v>0.0002090679752573348</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.326588889523496</v>
+        <v>-0.003020441998840973</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.001672524500372691</v>
+        <v>0.001683786525185128</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16141809012062766, -0.0021318426967885987, -0.049860934687806155, -0.06850734918551427, -0.023253897345305963, 0.14807796471090667, 0.3061553278416173, 0.12298757913903863, -0.02876984315057207, -0.08780221413997122, -0.07271457506013454, -0.05025705878303278, 0.15400916665222927, 0.30710885986829334, 0.12844848845717416, -0.030989511873469055, -0.09721866624351014, -0.09477050265240183, -0.04078760414678481]</t>
+    <t>[1.0, 0.16014964830042805, 0.006319493385571869, -0.04091551721438996, -0.05858842616238043, -0.013952503734280123, 0.1457823717617883, 0.2997770851256144, 0.12112223282782156, -0.023001484044785407, -0.08167710946294351, -0.06606268930906901, -0.04503916246486379, 0.15204428672204304, 0.30055848564274934, 0.12638316991232157, -0.02583730236550094, -0.09176064262131814, -0.08912174601445778, -0.03584873166383549]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.16123969287223486, -0.0013294608979813227, -0.04847352459885446, -0.0671766685610847, -0.022567769536717713, 0.14706186670134996, 0.30439898733186205, 0.12182488445277519, -0.0281627559880691, -0.08666815224328918, -0.07157466434697306, -0.04967619270266467, 0.15303532586450197, 0.30531846587190603, 0.1274835038918584, -0.030431817318542845, -0.09561998738328546, -0.09359602598652303, -0.04060179039944344]</t>
+    <t>[0.9999999999999998, 0.1633030394619685, 0.009314122979651021, -0.03553475356011592, -0.05403332269742089, -0.016428146199346197, 0.1429110568537933, 0.2966034362638458, 0.11789676010786454, -0.023266859829068506, -0.07719713704763413, -0.06262277265665875, -0.045655405754486816, 0.15025443963985025, 0.2966896631727092, 0.1245880652839908, -0.024112123514402145, -0.08787771097426056, -0.08409609855327078, -0.03490681841406111]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-7.354948024900805E-05</v>
+        <v>-0.000112122007561379</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.001017458716524932</v>
+        <v>-0.09273814318815624</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.001615523079403024</v>
+        <v>0.001613244288301545</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0009842675679307396</v>
+        <v>0.0003614971820210863</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.001369940891632407</v>
+        <v>-0.005482692490732029</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.001676261228809053</v>
+        <v>0.001676425996407432</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.000414301493574054</v>
+        <v>0.004052176248651647</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.002368844307873133</v>
+        <v>-0.3801356450595673</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.001559180592511698</v>
+        <v>0.001544648005416202</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/unleaded-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16014964830042805, 0.006319493385571869, -0.04091551721438996, -0.05858842616238043, -0.013952503734280123, 0.1457823717617883, 0.2997770851256144, 0.12112223282782156, -0.023001484044785407, -0.08167710946294351, -0.06606268930906901, -0.04503916246486379, 0.15204428672204304, 0.30055848564274934, 0.12638316991232157, -0.02583730236550094, -0.09176064262131814, -0.08912174601445778, -0.03584873166383549]</t>
+    <t>[1.0, 0.16014964830042805, 0.006319493385571846, -0.04091551721438999, -0.05858842616238047, -0.013952503734280133, 0.1457823717617883, 0.2997770851256144, 0.12112223282782159, -0.023001484044785418, -0.08167710946294356, -0.066062689309069, -0.045039162464863815, 0.152044286722043, 0.30055848564274934, 0.12638316991232154, -0.02583730236550095, -0.09176064262131808, -0.0891217460144578, -0.035848731663835474]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.1633030394619685, 0.009314122979651021, -0.03553475356011592, -0.05403332269742089, -0.016428146199346197, 0.1429110568537933, 0.2966034362638458, 0.11789676010786454, -0.023266859829068506, -0.07719713704763413, -0.06262277265665875, -0.045655405754486816, 0.15025443963985025, 0.2966896631727092, 0.1245880652839908, -0.024112123514402145, -0.08787771097426056, -0.08409609855327078, -0.03490681841406111]</t>
+    <t>[0.9999999999999998, 0.16330303946196845, 0.009314122979651056, -0.035534753560115886, -0.05403332269742088, -0.016428146199346193, 0.14291105685379327, 0.29660343626384583, 0.11789676010786444, -0.023266859829068502, -0.07719713704763413, -0.06262277265665872, -0.04565540575448683, 0.15025443963985027, 0.29668966317270923, 0.12458806528399075, -0.024112123514402155, -0.08787771097426057, -0.08409609855327077, -0.034906818414061104]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.000112122007561379</v>
+        <v>-0.0001121220075613781</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.09273814318815624</v>
+        <v>-0.0927381431881561</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9355295784626284</v>
+        <v>0.4833455344070278</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0003614971820210863</v>
+        <v>0.000361497182021086</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.005482692490732029</v>
+        <v>-0.00548269249073208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.004052176248651647</v>
+        <v>0.004052176248651645</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.3801356450595673</v>
+        <v>-0.3801356450595676</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.001544648005416202</v>
+        <v>0.001544648005416201</v>
       </c>
     </row>
     <row r="10" spans="1:2">
